--- a/old_database/crypto/fastqFiles/fastq_0731.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_0731.xlsx
@@ -40,7 +40,7 @@
     <t>05.01.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0731</t>
   </si>
   <si>
     <t>0731</t>
